--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H2">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I2">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J2">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N2">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O2">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P2">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q2">
-        <v>3.706675281601444</v>
+        <v>6.120441436825334</v>
       </c>
       <c r="R2">
-        <v>33.360077534413</v>
+        <v>55.083972931428</v>
       </c>
       <c r="S2">
-        <v>0.01017645177265076</v>
+        <v>0.02720304552163028</v>
       </c>
       <c r="T2">
-        <v>0.01017645177265076</v>
+        <v>0.02720304552163028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H3">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I3">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J3">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.499578</v>
       </c>
       <c r="O3">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P3">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q3">
-        <v>6.208936340987333</v>
+        <v>8.274067392376001</v>
       </c>
       <c r="R3">
-        <v>55.88042706888599</v>
+        <v>74.46660653138399</v>
       </c>
       <c r="S3">
-        <v>0.01704625747692084</v>
+        <v>0.0367750977191916</v>
       </c>
       <c r="T3">
-        <v>0.01704625747692084</v>
+        <v>0.0367750977191916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H4">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I4">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J4">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N4">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O4">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P4">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q4">
-        <v>6.131567683142221</v>
+        <v>4.753248029992</v>
       </c>
       <c r="R4">
-        <v>55.18410914827999</v>
+        <v>42.77923226992799</v>
       </c>
       <c r="S4">
-        <v>0.01683384652763064</v>
+        <v>0.02112638832837866</v>
       </c>
       <c r="T4">
-        <v>0.01683384652763064</v>
+        <v>0.02112638832837866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H5">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I5">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J5">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N5">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O5">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P5">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q5">
-        <v>3.501272066525333</v>
+        <v>2.495436451785333</v>
       </c>
       <c r="R5">
-        <v>31.511448598728</v>
+        <v>22.458928066068</v>
       </c>
       <c r="S5">
-        <v>0.009612529725703515</v>
+        <v>0.01109127047369692</v>
       </c>
       <c r="T5">
-        <v>0.009612529725703515</v>
+        <v>0.01109127047369692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H6">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I6">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J6">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N6">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O6">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P6">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q6">
-        <v>0.5979989400038888</v>
+        <v>1.091714978868</v>
       </c>
       <c r="R6">
-        <v>5.381990460034999</v>
+        <v>9.825434809811998</v>
       </c>
       <c r="S6">
-        <v>0.001641769756107864</v>
+        <v>0.004852259853040298</v>
       </c>
       <c r="T6">
-        <v>0.001641769756107864</v>
+        <v>0.004852259853040298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.201762333333333</v>
+        <v>1.601476</v>
       </c>
       <c r="H7">
-        <v>3.605287</v>
+        <v>4.804428</v>
       </c>
       <c r="I7">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="J7">
-        <v>0.06687913555627695</v>
+        <v>0.1173623237721932</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N7">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O7">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P7">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q7">
-        <v>4.213635517218555</v>
+        <v>3.670562706637333</v>
       </c>
       <c r="R7">
-        <v>37.922719654967</v>
+        <v>33.035064359736</v>
       </c>
       <c r="S7">
-        <v>0.01156828029726333</v>
+        <v>0.01631426187625548</v>
       </c>
       <c r="T7">
-        <v>0.01156828029726333</v>
+        <v>0.01631426187625548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I8">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J8">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N8">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O8">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P8">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q8">
-        <v>9.051698103410223</v>
+        <v>11.21570089456756</v>
       </c>
       <c r="R8">
-        <v>81.465282930692</v>
+        <v>100.941308051108</v>
       </c>
       <c r="S8">
-        <v>0.02485088717297923</v>
+        <v>0.04984954519067605</v>
       </c>
       <c r="T8">
-        <v>0.02485088717297923</v>
+        <v>0.04984954519067604</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I9">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J9">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>15.499578</v>
       </c>
       <c r="O9">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P9">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q9">
         <v>15.16221762960267</v>
@@ -1013,10 +1013,10 @@
         <v>136.459958666424</v>
       </c>
       <c r="S9">
-        <v>0.04162694726456413</v>
+        <v>0.06739031827104425</v>
       </c>
       <c r="T9">
-        <v>0.04162694726456413</v>
+        <v>0.06739031827104423</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I10">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J10">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N10">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O10">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P10">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q10">
-        <v>14.97328342839111</v>
+        <v>8.710320772178667</v>
       </c>
       <c r="R10">
-        <v>134.75955085552</v>
+        <v>78.392886949608</v>
       </c>
       <c r="S10">
-        <v>0.04110823989454519</v>
+        <v>0.03871407886495233</v>
       </c>
       <c r="T10">
-        <v>0.04110823989454519</v>
+        <v>0.03871407886495232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I11">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J11">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N11">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O11">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P11">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q11">
-        <v>8.550103614794667</v>
+        <v>4.572884020460888</v>
       </c>
       <c r="R11">
-        <v>76.950932533152</v>
+        <v>41.155956184148</v>
       </c>
       <c r="S11">
-        <v>0.02347378998074332</v>
+        <v>0.02032473857608831</v>
       </c>
       <c r="T11">
-        <v>0.02347378998074332</v>
+        <v>0.02032473857608831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I12">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J12">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N12">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O12">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P12">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q12">
-        <v>1.460312938104444</v>
+        <v>2.000566264948</v>
       </c>
       <c r="R12">
-        <v>13.14281644294</v>
+        <v>18.005096384532</v>
       </c>
       <c r="S12">
-        <v>0.004009200444765506</v>
+        <v>0.008891759807875342</v>
       </c>
       <c r="T12">
-        <v>0.004009200444765506</v>
+        <v>0.00889175980787534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.804107999999999</v>
       </c>
       <c r="I13">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="J13">
-        <v>0.1633187960858879</v>
+        <v>0.2150663041721838</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N13">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O13">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P13">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q13">
-        <v>10.28969459746978</v>
+        <v>6.726301339099556</v>
       </c>
       <c r="R13">
-        <v>92.607251377228</v>
+        <v>60.536712051896</v>
       </c>
       <c r="S13">
-        <v>0.0282497313282905</v>
+        <v>0.02989586346154753</v>
       </c>
       <c r="T13">
-        <v>0.0282497313282905</v>
+        <v>0.02989586346154753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H14">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I14">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J14">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N14">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O14">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P14">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q14">
-        <v>8.988331853336112</v>
+        <v>2.691842203782667</v>
       </c>
       <c r="R14">
-        <v>80.89498668002501</v>
+        <v>24.22657983404401</v>
       </c>
       <c r="S14">
-        <v>0.02467691898345541</v>
+        <v>0.01196421969924573</v>
       </c>
       <c r="T14">
-        <v>0.02467691898345541</v>
+        <v>0.01196421969924573</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H15">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I15">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J15">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.499578</v>
       </c>
       <c r="O15">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P15">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q15">
-        <v>15.05607479728334</v>
+        <v>3.639032255048001</v>
       </c>
       <c r="R15">
-        <v>135.50467317555</v>
+        <v>32.75129029543201</v>
       </c>
       <c r="S15">
-        <v>0.04133553856753805</v>
+        <v>0.01617412095361852</v>
       </c>
       <c r="T15">
-        <v>0.04133553856753806</v>
+        <v>0.01617412095361852</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H16">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I16">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J16">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N16">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O16">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P16">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q16">
-        <v>14.86846322655556</v>
+        <v>2.090534446616001</v>
       </c>
       <c r="R16">
-        <v>133.816169039</v>
+        <v>18.814810019544</v>
       </c>
       <c r="S16">
-        <v>0.04082046239915094</v>
+        <v>0.009291634321286647</v>
       </c>
       <c r="T16">
-        <v>0.04082046239915094</v>
+        <v>0.009291634321286647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H17">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I17">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J17">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N17">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O17">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P17">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q17">
-        <v>8.490248767933334</v>
+        <v>1.097522331862667</v>
       </c>
       <c r="R17">
-        <v>76.41223891140001</v>
+        <v>9.877700986764001</v>
       </c>
       <c r="S17">
-        <v>0.02330946213539167</v>
+        <v>0.004878071338944498</v>
       </c>
       <c r="T17">
-        <v>0.02330946213539168</v>
+        <v>0.004878071338944498</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H18">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I18">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J18">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N18">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O18">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P18">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q18">
-        <v>1.450090043597222</v>
+        <v>0.4801491011640001</v>
       </c>
       <c r="R18">
-        <v>13.050810392375</v>
+        <v>4.321341910476001</v>
       </c>
       <c r="S18">
-        <v>0.0039811341090263</v>
+        <v>0.002134081012122085</v>
       </c>
       <c r="T18">
-        <v>0.0039811341090263</v>
+        <v>0.002134081012122085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.914158333333333</v>
+        <v>0.7043480000000001</v>
       </c>
       <c r="H19">
-        <v>8.742475000000001</v>
+        <v>2.113044</v>
       </c>
       <c r="I19">
-        <v>0.1621754857858368</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="J19">
-        <v>0.1621754857858369</v>
+        <v>0.05161733177662155</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N19">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O19">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P19">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q19">
-        <v>10.21766177516389</v>
+        <v>1.614356694258667</v>
       </c>
       <c r="R19">
-        <v>91.95895597647501</v>
+        <v>14.529210248328</v>
       </c>
       <c r="S19">
-        <v>0.02805196959127448</v>
+        <v>0.007175204451404077</v>
       </c>
       <c r="T19">
-        <v>0.02805196959127449</v>
+        <v>0.007175204451404077</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H20">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I20">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J20">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N20">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O20">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P20">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q20">
-        <v>8.249249823810112</v>
+        <v>4.668547019941</v>
       </c>
       <c r="R20">
-        <v>74.243248414291</v>
+        <v>42.016923179469</v>
       </c>
       <c r="S20">
-        <v>0.02264781417709787</v>
+        <v>0.02074992439911336</v>
       </c>
       <c r="T20">
-        <v>0.02264781417709786</v>
+        <v>0.02074992439911336</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H21">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I21">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J21">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>15.499578</v>
       </c>
       <c r="O21">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P21">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q21">
-        <v>13.81806150411134</v>
+        <v>6.311288665398</v>
       </c>
       <c r="R21">
-        <v>124.362553537002</v>
+        <v>56.801597988582</v>
       </c>
       <c r="S21">
-        <v>0.03793664829128427</v>
+        <v>0.02805128921452838</v>
       </c>
       <c r="T21">
-        <v>0.03793664829128426</v>
+        <v>0.02805128921452837</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H22">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I22">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J22">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N22">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O22">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P22">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q22">
-        <v>13.64587663799556</v>
+        <v>3.625679970066</v>
       </c>
       <c r="R22">
-        <v>122.81288974196</v>
+        <v>32.63111973059399</v>
       </c>
       <c r="S22">
-        <v>0.037463925203102</v>
+        <v>0.0161147751008835</v>
       </c>
       <c r="T22">
-        <v>0.03746392520310199</v>
+        <v>0.0161147751008835</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H23">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I23">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J23">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N23">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O23">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P23">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q23">
-        <v>7.792122531277335</v>
+        <v>1.903467671521</v>
       </c>
       <c r="R23">
-        <v>70.129102781496</v>
+        <v>17.131209043689</v>
       </c>
       <c r="S23">
-        <v>0.02139279896993562</v>
+        <v>0.008460193313146977</v>
       </c>
       <c r="T23">
-        <v>0.02139279896993562</v>
+        <v>0.008460193313146977</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H24">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I24">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J24">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N24">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O24">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P24">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q24">
-        <v>1.330853737027222</v>
+        <v>0.832737763089</v>
       </c>
       <c r="R24">
-        <v>11.977683633245</v>
+        <v>7.494639867800999</v>
       </c>
       <c r="S24">
-        <v>0.003653778073988248</v>
+        <v>0.003701204155078188</v>
       </c>
       <c r="T24">
-        <v>0.003653778073988247</v>
+        <v>0.003701204155078188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.674536333333334</v>
+        <v>1.221573</v>
       </c>
       <c r="H25">
-        <v>8.023609</v>
+        <v>3.664719</v>
       </c>
       <c r="I25">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247326</v>
       </c>
       <c r="J25">
-        <v>0.1488403097899179</v>
+        <v>0.08952157006247324</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N25">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O25">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P25">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q25">
-        <v>9.377495843929891</v>
+        <v>2.799829842742001</v>
       </c>
       <c r="R25">
-        <v>84.39746259536901</v>
+        <v>25.198468584678</v>
       </c>
       <c r="S25">
-        <v>0.02574534507450994</v>
+        <v>0.01244418387972285</v>
       </c>
       <c r="T25">
-        <v>0.02574534507450994</v>
+        <v>0.01244418387972285</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H26">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I26">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J26">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N26">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O26">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P26">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q26">
-        <v>10.96529655144844</v>
+        <v>16.729234365375</v>
       </c>
       <c r="R26">
-        <v>98.68766896303599</v>
+        <v>150.563109288375</v>
       </c>
       <c r="S26">
-        <v>0.03010455544420337</v>
+        <v>0.07435511452575397</v>
       </c>
       <c r="T26">
-        <v>0.03010455544420337</v>
+        <v>0.07435511452575397</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H27">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I27">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J27">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>15.499578</v>
       </c>
       <c r="O27">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P27">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q27">
-        <v>18.36762680182133</v>
+        <v>22.61582174925</v>
       </c>
       <c r="R27">
-        <v>165.308641216392</v>
+        <v>203.54239574325</v>
       </c>
       <c r="S27">
-        <v>0.05042720339021065</v>
+        <v>0.1005187672987584</v>
       </c>
       <c r="T27">
-        <v>0.05042720339021065</v>
+        <v>0.1005187672987584</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H28">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I28">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J28">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N28">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O28">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P28">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q28">
-        <v>18.13875046046222</v>
+        <v>12.99223284975</v>
       </c>
       <c r="R28">
-        <v>163.24875414416</v>
+        <v>116.93009564775</v>
       </c>
       <c r="S28">
-        <v>0.04979883730125142</v>
+        <v>0.05774555729148394</v>
       </c>
       <c r="T28">
-        <v>0.04979883730125142</v>
+        <v>0.05774555729148394</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H29">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I29">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J29">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N29">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O29">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P29">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q29">
-        <v>10.35766113835733</v>
+        <v>6.820870957874999</v>
       </c>
       <c r="R29">
-        <v>93.21895024521599</v>
+        <v>61.387838620875</v>
       </c>
       <c r="S29">
-        <v>0.02843632933673467</v>
+        <v>0.03031618962119885</v>
       </c>
       <c r="T29">
-        <v>0.02843632933673467</v>
+        <v>0.03031618962119885</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H30">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I30">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J30">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N30">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O30">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P30">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q30">
-        <v>1.769034300668889</v>
+        <v>2.984025895875</v>
       </c>
       <c r="R30">
-        <v>15.92130870602</v>
+        <v>26.856233062875</v>
       </c>
       <c r="S30">
-        <v>0.004856776188159665</v>
+        <v>0.01326286561534626</v>
       </c>
       <c r="T30">
-        <v>0.004856776188159665</v>
+        <v>0.01326286561534626</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.555121333333333</v>
+        <v>4.377375</v>
       </c>
       <c r="H31">
-        <v>10.665364</v>
+        <v>13.132125</v>
       </c>
       <c r="I31">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="J31">
-        <v>0.1978456429995826</v>
+        <v>0.3207908841732904</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N31">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O31">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P31">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q31">
-        <v>12.46501500559155</v>
+        <v>10.03288805325</v>
       </c>
       <c r="R31">
-        <v>112.185135050324</v>
+        <v>90.29599247925</v>
       </c>
       <c r="S31">
-        <v>0.03422194133902283</v>
+        <v>0.044592389820749</v>
       </c>
       <c r="T31">
-        <v>0.03422194133902283</v>
+        <v>0.044592389820749</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H32">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I32">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J32">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.084366333333334</v>
+        <v>3.821750333333334</v>
       </c>
       <c r="N32">
-        <v>9.253099000000001</v>
+        <v>11.465251</v>
       </c>
       <c r="O32">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="P32">
-        <v>0.1521618317582404</v>
+        <v>0.2317868686243202</v>
       </c>
       <c r="Q32">
-        <v>14.46224109111589</v>
+        <v>10.72420214511567</v>
       </c>
       <c r="R32">
-        <v>130.160169820043</v>
+        <v>96.51781930604101</v>
       </c>
       <c r="S32">
-        <v>0.03970520420785371</v>
+        <v>0.04766501928790077</v>
       </c>
       <c r="T32">
-        <v>0.03970520420785371</v>
+        <v>0.04766501928790076</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H33">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I33">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J33">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>15.499578</v>
       </c>
       <c r="O33">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="P33">
-        <v>0.2548815461673676</v>
+        <v>0.3133467073349204</v>
       </c>
       <c r="Q33">
-        <v>24.22524970786067</v>
+        <v>14.497773109022</v>
       </c>
       <c r="R33">
-        <v>218.027247370746</v>
+        <v>130.479957981198</v>
       </c>
       <c r="S33">
-        <v>0.0665089511768497</v>
+        <v>0.06443711387777926</v>
       </c>
       <c r="T33">
-        <v>0.06650895117684968</v>
+        <v>0.06443711387777924</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H34">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I34">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J34">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.102146666666667</v>
+        <v>2.968042</v>
       </c>
       <c r="N34">
-        <v>15.30644</v>
+        <v>8.904126</v>
       </c>
       <c r="O34">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="P34">
-        <v>0.2517055040800493</v>
+        <v>0.1800099695485422</v>
       </c>
       <c r="Q34">
-        <v>23.92338237456445</v>
+        <v>8.328613752074</v>
       </c>
       <c r="R34">
-        <v>215.31044137108</v>
+        <v>74.95752376866599</v>
       </c>
       <c r="S34">
-        <v>0.06568019275436915</v>
+        <v>0.03701753564155714</v>
       </c>
       <c r="T34">
-        <v>0.06568019275436913</v>
+        <v>0.03701753564155714</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H35">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I35">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J35">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.913448</v>
+        <v>1.558210333333333</v>
       </c>
       <c r="N35">
-        <v>8.740344</v>
+        <v>4.674631</v>
       </c>
       <c r="O35">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416919</v>
       </c>
       <c r="P35">
-        <v>0.1437298739846127</v>
+        <v>0.09450452340416921</v>
       </c>
       <c r="Q35">
-        <v>13.66082456777867</v>
+        <v>4.372489341735666</v>
       </c>
       <c r="R35">
-        <v>122.947421110008</v>
+        <v>39.352404075621</v>
       </c>
       <c r="S35">
-        <v>0.03750496383610388</v>
+        <v>0.01943406008109363</v>
       </c>
       <c r="T35">
-        <v>0.03750496383610388</v>
+        <v>0.01943406008109363</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H36">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I36">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J36">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.4976016666666667</v>
+        <v>0.681693</v>
       </c>
       <c r="N36">
-        <v>1.492805</v>
+        <v>2.045079</v>
       </c>
       <c r="O36">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="P36">
-        <v>0.02454831005891756</v>
+        <v>0.04134427214016998</v>
       </c>
       <c r="Q36">
-        <v>2.333197322542778</v>
+        <v>1.912896682221</v>
       </c>
       <c r="R36">
-        <v>20.998775902885</v>
+        <v>17.216070139989</v>
       </c>
       <c r="S36">
-        <v>0.006405651486869973</v>
+        <v>0.008502101696707801</v>
       </c>
       <c r="T36">
-        <v>0.006405651486869971</v>
+        <v>0.008502101696707799</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.688885666666667</v>
+        <v>2.806097</v>
       </c>
       <c r="H37">
-        <v>14.066657</v>
+        <v>8.418291</v>
       </c>
       <c r="I37">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="J37">
-        <v>0.2609406297824978</v>
+        <v>0.2056415860432377</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.506213666666667</v>
+        <v>2.291987333333334</v>
       </c>
       <c r="N37">
-        <v>10.518641</v>
+        <v>6.875962</v>
       </c>
       <c r="O37">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="P37">
-        <v>0.1729729339508125</v>
+        <v>0.1390076589478781</v>
       </c>
       <c r="Q37">
-        <v>16.44023500590411</v>
+        <v>6.431538780104667</v>
       </c>
       <c r="R37">
-        <v>147.962115053137</v>
+        <v>57.883849020942</v>
       </c>
       <c r="S37">
-        <v>0.04513566632045141</v>
+        <v>0.02858575545819911</v>
       </c>
       <c r="T37">
-        <v>0.0451356663204514</v>
+        <v>0.0285857554581991</v>
       </c>
     </row>
   </sheetData>
